--- a/Code/Results/Cases/Case_3_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_174/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.32896295015414</v>
+        <v>10.46978126609108</v>
       </c>
       <c r="C2">
-        <v>11.20942728026877</v>
+        <v>7.902901218768448</v>
       </c>
       <c r="D2">
-        <v>3.727711626806723</v>
+        <v>3.808319522319407</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.62732982563508</v>
+        <v>20.79039870847368</v>
       </c>
       <c r="G2">
-        <v>2.052161908685412</v>
+        <v>3.59741220045176</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.04007188671598</v>
+        <v>19.96745915319175</v>
       </c>
       <c r="N2">
-        <v>10.61996266065971</v>
+        <v>16.48273794919262</v>
       </c>
       <c r="O2">
-        <v>14.16067808583239</v>
+        <v>18.38178476286791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.23733983640582</v>
+        <v>9.965702345765218</v>
       </c>
       <c r="C3">
-        <v>10.67358132481208</v>
+        <v>7.642500481011892</v>
       </c>
       <c r="D3">
-        <v>3.602740665322204</v>
+        <v>3.761956772302128</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.8418523422751</v>
+        <v>20.69967622383982</v>
       </c>
       <c r="G3">
-        <v>2.057617749084315</v>
+        <v>3.59944262452683</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.74141946215242</v>
+        <v>19.36044299238007</v>
       </c>
       <c r="N3">
-        <v>10.87093449240379</v>
+        <v>16.55044511306207</v>
       </c>
       <c r="O3">
-        <v>13.77249738863098</v>
+        <v>18.38120398236523</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.52786293602234</v>
+        <v>9.643775446309027</v>
       </c>
       <c r="C4">
-        <v>10.32866084825477</v>
+        <v>7.476695600016303</v>
       </c>
       <c r="D4">
-        <v>3.523081317055611</v>
+        <v>3.732798885231843</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.36212837895122</v>
+        <v>20.65081845203585</v>
       </c>
       <c r="G4">
-        <v>2.061060755708709</v>
+        <v>3.600755320017431</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.27886320070117</v>
+        <v>18.9860236845136</v>
       </c>
       <c r="N4">
-        <v>11.02668347886713</v>
+        <v>16.59386810813637</v>
       </c>
       <c r="O4">
-        <v>13.54469499139856</v>
+        <v>18.38626834874109</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.2288948711768</v>
+        <v>9.509633033473424</v>
       </c>
       <c r="C5">
-        <v>10.18422470984071</v>
+        <v>7.407708067045711</v>
       </c>
       <c r="D5">
-        <v>3.489918776130391</v>
+        <v>3.720749647683164</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.16754594267997</v>
+        <v>20.63264588451259</v>
       </c>
       <c r="G5">
-        <v>2.062488193328111</v>
+        <v>3.601306907749528</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.66918226015785</v>
+        <v>18.83327292684265</v>
       </c>
       <c r="N5">
-        <v>11.09064936569933</v>
+        <v>16.61203060546836</v>
       </c>
       <c r="O5">
-        <v>13.45455850724598</v>
+        <v>18.38969332250826</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.17865701893533</v>
+        <v>9.487185792757261</v>
       </c>
       <c r="C6">
-        <v>10.16001085952957</v>
+        <v>7.39616903839074</v>
       </c>
       <c r="D6">
-        <v>3.484370920682019</v>
+        <v>3.718738980408371</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.13529886402048</v>
+        <v>20.62973368386143</v>
       </c>
       <c r="G6">
-        <v>2.06272671794232</v>
+        <v>3.601399505948613</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.56709739052656</v>
+        <v>18.8079061904981</v>
       </c>
       <c r="N6">
-        <v>11.10130306977342</v>
+        <v>16.6150747535388</v>
       </c>
       <c r="O6">
-        <v>13.43975535658077</v>
+        <v>18.39034417372639</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.52387081123915</v>
+        <v>9.64197807542662</v>
       </c>
       <c r="C7">
-        <v>10.32672846144271</v>
+        <v>7.47577086829547</v>
       </c>
       <c r="D7">
-        <v>3.52263686416325</v>
+        <v>3.732637053031752</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.35950012088053</v>
+        <v>20.6505663171143</v>
       </c>
       <c r="G7">
-        <v>2.061079906670924</v>
+        <v>3.600762691418983</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.27069720522884</v>
+        <v>18.98396397996257</v>
       </c>
       <c r="N7">
-        <v>11.02754403228818</v>
+        <v>16.59411115944174</v>
       </c>
       <c r="O7">
-        <v>13.54346841344532</v>
+        <v>18.38630903104105</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.96071404782514</v>
+        <v>10.29864587254525</v>
       </c>
       <c r="C8">
-        <v>11.0280380391772</v>
+        <v>7.814381572466564</v>
       </c>
       <c r="D8">
-        <v>3.68524945454804</v>
+        <v>3.792480956829943</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.35611455731606</v>
+        <v>20.7577070234889</v>
       </c>
       <c r="G8">
-        <v>2.054024374206299</v>
+        <v>3.598098624533174</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.25759600329583</v>
+        <v>19.75866515501102</v>
       </c>
       <c r="N8">
-        <v>10.70620749810428</v>
+        <v>16.50570047993233</v>
       </c>
       <c r="O8">
-        <v>14.02467273642599</v>
+        <v>18.38045851565702</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.46716275469398</v>
+        <v>11.48166594457186</v>
       </c>
       <c r="C9">
-        <v>12.27239045132171</v>
+        <v>8.428825341307199</v>
       </c>
       <c r="D9">
-        <v>3.979470068228003</v>
+        <v>3.904072373316259</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.32095306194552</v>
+        <v>21.02130231446118</v>
       </c>
       <c r="G9">
-        <v>2.040877865064296</v>
+        <v>3.593395589799213</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.75221196963042</v>
+        <v>21.25369898185258</v>
       </c>
       <c r="N9">
-        <v>10.08483365323425</v>
+        <v>16.34692059991866</v>
       </c>
       <c r="O9">
-        <v>15.05002261319998</v>
+        <v>18.41204173644015</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.11923015405822</v>
+        <v>12.28027604249875</v>
       </c>
       <c r="C10">
-        <v>13.10111445501305</v>
+        <v>8.846985739924818</v>
       </c>
       <c r="D10">
-        <v>4.1787570636553</v>
+        <v>3.982185661979862</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.76073135035215</v>
+        <v>21.24628231776407</v>
       </c>
       <c r="G10">
-        <v>2.031560196811223</v>
+        <v>3.590254440813121</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.64300697228703</v>
+        <v>22.32435082029166</v>
       </c>
       <c r="N10">
-        <v>9.626263106710049</v>
+        <v>16.23903396574347</v>
       </c>
       <c r="O10">
-        <v>15.85105769360715</v>
+        <v>18.46148901138047</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.82972981223564</v>
+        <v>12.62721029774221</v>
       </c>
       <c r="C11">
-        <v>13.45839723740863</v>
+        <v>9.029465891413162</v>
       </c>
       <c r="D11">
-        <v>4.265365559500641</v>
+        <v>4.016808205583964</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.4137152223231</v>
+        <v>21.35510360616356</v>
       </c>
       <c r="G11">
-        <v>2.027373894271498</v>
+        <v>3.588892910090961</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.40400394122711</v>
+        <v>22.8029901963447</v>
       </c>
       <c r="N11">
-        <v>9.415016487310018</v>
+        <v>16.19183019935221</v>
       </c>
       <c r="O11">
-        <v>16.22565758537635</v>
+        <v>18.48965894219354</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.09287161294515</v>
+        <v>12.75616480356128</v>
       </c>
       <c r="C12">
-        <v>13.5907512479192</v>
+        <v>9.097415861255904</v>
       </c>
       <c r="D12">
-        <v>4.297545149401523</v>
+        <v>4.029781977694014</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.66067234898112</v>
+        <v>21.39721176216435</v>
       </c>
       <c r="G12">
-        <v>2.025793967443282</v>
+        <v>3.588386966994227</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.07213053412922</v>
+        <v>22.9828539610874</v>
       </c>
       <c r="N12">
-        <v>9.334400728297991</v>
+        <v>16.17422280465591</v>
       </c>
       <c r="O12">
-        <v>16.3689916504008</v>
+        <v>18.50113856003073</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.03646239104551</v>
+        <v>12.72850084154657</v>
       </c>
       <c r="C13">
-        <v>13.56237913941782</v>
+        <v>9.082833376496058</v>
       </c>
       <c r="D13">
-        <v>4.290642749463166</v>
+        <v>4.026994030537407</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.60749944788288</v>
+        <v>21.38810351614328</v>
       </c>
       <c r="G13">
-        <v>2.026134035651649</v>
+        <v>3.58849550302044</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.92813184727838</v>
+        <v>22.94418139251418</v>
       </c>
       <c r="N13">
-        <v>9.351794976963008</v>
+        <v>16.17800299853198</v>
       </c>
       <c r="O13">
-        <v>16.33805563955731</v>
+        <v>18.49863016720889</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.85149716374755</v>
+        <v>12.63786835818583</v>
       </c>
       <c r="C14">
-        <v>13.46934569945298</v>
+        <v>9.035079450147785</v>
       </c>
       <c r="D14">
-        <v>4.268025577614242</v>
+        <v>4.017878345214707</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.4340387618609</v>
+        <v>21.358550021486</v>
       </c>
       <c r="G14">
-        <v>2.027243820040902</v>
+        <v>3.588851092964711</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.45892820856835</v>
+        <v>22.81781644109795</v>
       </c>
       <c r="N14">
-        <v>9.408398252944728</v>
+        <v>16.19037627517475</v>
       </c>
       <c r="O14">
-        <v>16.23741988243914</v>
+        <v>18.49058712453704</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.73743064086699</v>
+        <v>12.58203607452929</v>
       </c>
       <c r="C15">
-        <v>13.41197354845455</v>
+        <v>9.005677815408596</v>
       </c>
       <c r="D15">
-        <v>4.254090427253143</v>
+        <v>4.012276706398908</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.32774844121387</v>
+        <v>21.34056387802925</v>
       </c>
       <c r="G15">
-        <v>2.027924216874178</v>
+        <v>3.589070155818908</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.17178216097747</v>
+        <v>22.74022871168589</v>
       </c>
       <c r="N15">
-        <v>9.442980196298725</v>
+        <v>16.19799006385583</v>
       </c>
       <c r="O15">
-        <v>16.17597144059753</v>
+        <v>18.48576617518514</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.07197115993321</v>
+        <v>12.25726766465911</v>
       </c>
       <c r="C16">
-        <v>13.07735976486307</v>
+        <v>8.834901076154033</v>
       </c>
       <c r="D16">
-        <v>4.173012619610856</v>
+        <v>3.979904139988032</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.71801360289407</v>
+        <v>21.239298277144</v>
       </c>
       <c r="G16">
-        <v>2.031834657518295</v>
+        <v>3.590344771721219</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.52794463532391</v>
+        <v>22.29288585678573</v>
       </c>
       <c r="N16">
-        <v>9.639996214470552</v>
+        <v>16.24215639913101</v>
       </c>
       <c r="O16">
-        <v>15.82678252071115</v>
+        <v>18.45976194637218</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.65322085236825</v>
+        <v>12.05378949036235</v>
       </c>
       <c r="C17">
-        <v>12.86696516873311</v>
+        <v>8.728123408885546</v>
       </c>
       <c r="D17">
-        <v>4.122213267947893</v>
+        <v>3.959806833044169</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.34341429734068</v>
+        <v>21.17881223698146</v>
       </c>
       <c r="G17">
-        <v>2.034245567993851</v>
+        <v>3.591143931281045</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.51882214236281</v>
+        <v>22.01617039367353</v>
       </c>
       <c r="N17">
-        <v>9.760029976241883</v>
+        <v>16.26972975026814</v>
       </c>
       <c r="O17">
-        <v>15.61518038846324</v>
+        <v>18.44526053021351</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.40850537827692</v>
+        <v>11.93521787849956</v>
       </c>
       <c r="C18">
-        <v>12.74410368217507</v>
+        <v>8.665980842274516</v>
       </c>
       <c r="D18">
-        <v>4.092616018759352</v>
+        <v>3.948161932144596</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.12776664894292</v>
+        <v>21.14463390859841</v>
       </c>
       <c r="G18">
-        <v>2.035637340848802</v>
+        <v>3.591609933236149</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.93737185433598</v>
+        <v>21.85622929503941</v>
       </c>
       <c r="N18">
-        <v>9.828839218168747</v>
+        <v>16.28576575337618</v>
       </c>
       <c r="O18">
-        <v>15.49443056017857</v>
+        <v>18.43745426882442</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.32498581083258</v>
+        <v>11.89481003393513</v>
       </c>
       <c r="C19">
-        <v>12.70219053539552</v>
+        <v>8.644816827727283</v>
       </c>
       <c r="D19">
-        <v>4.082530852348341</v>
+        <v>3.944204675830856</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.0547216511087</v>
+        <v>21.1331676888136</v>
       </c>
       <c r="G19">
-        <v>2.036109503727185</v>
+        <v>3.591768805101647</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.740258980607</v>
+        <v>21.80194744607115</v>
       </c>
       <c r="N19">
-        <v>9.852103539286411</v>
+        <v>16.29122564709775</v>
       </c>
       <c r="O19">
-        <v>15.4537113822818</v>
+        <v>18.43490311764338</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.69819719954671</v>
+        <v>12.07560964084605</v>
       </c>
       <c r="C20">
-        <v>12.88955403333464</v>
+        <v>8.739565592192839</v>
       </c>
       <c r="D20">
-        <v>4.127660393195333</v>
+        <v>3.961955114462758</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.38331090171661</v>
+        <v>21.18518799801525</v>
       </c>
       <c r="G20">
-        <v>2.033988411088148</v>
+        <v>3.591058202920418</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.6263352112556</v>
+        <v>22.04570947367225</v>
       </c>
       <c r="N20">
-        <v>9.747277635372836</v>
+        <v>16.26677626236312</v>
       </c>
       <c r="O20">
-        <v>15.63760663547707</v>
+        <v>18.44674892985486</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.90598643133847</v>
+        <v>12.6645555419021</v>
       </c>
       <c r="C21">
-        <v>13.49675263427333</v>
+        <v>9.049137460115638</v>
       </c>
       <c r="D21">
-        <v>4.274685838067316</v>
+        <v>4.020559608247987</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.48499680112846</v>
+        <v>21.36720643687151</v>
       </c>
       <c r="G21">
-        <v>2.026917724466667</v>
+        <v>3.588746386391792</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.59668593010844</v>
+        <v>22.85497185100868</v>
       </c>
       <c r="N21">
-        <v>9.391791616617445</v>
+        <v>16.18673469508073</v>
       </c>
       <c r="O21">
-        <v>16.26693856957883</v>
+        <v>18.49292755307027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.6608898781394</v>
+        <v>13.03532463296727</v>
       </c>
       <c r="C22">
-        <v>13.87638451423681</v>
+        <v>9.244735590847302</v>
       </c>
       <c r="D22">
-        <v>4.367158402940223</v>
+        <v>4.0580597049379</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.20321774662077</v>
+        <v>21.49139534344579</v>
       </c>
       <c r="G22">
-        <v>2.022326330758102</v>
+        <v>3.587291640361147</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.54720835614968</v>
+        <v>23.37571951120724</v>
       </c>
       <c r="N22">
-        <v>9.155674070675806</v>
+        <v>16.13598207931531</v>
       </c>
       <c r="O22">
-        <v>16.68690948267374</v>
+        <v>18.52783991686195</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.26114288252731</v>
+        <v>12.83875204469976</v>
       </c>
       <c r="C23">
-        <v>13.67538253843682</v>
+        <v>9.140967824392957</v>
       </c>
       <c r="D23">
-        <v>4.318147780890015</v>
+        <v>4.038120422711809</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.82004649978517</v>
+        <v>21.42464579685837</v>
       </c>
       <c r="G23">
-        <v>2.024774980571766</v>
+        <v>3.588062944217397</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.50427537004428</v>
+        <v>23.09858678377433</v>
       </c>
       <c r="N23">
-        <v>9.282139578672734</v>
+        <v>16.16292766520012</v>
       </c>
       <c r="O23">
-        <v>16.46195641564639</v>
+        <v>18.50877514286555</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.67787575929682</v>
+        <v>12.06574969570294</v>
       </c>
       <c r="C24">
-        <v>12.87934752669617</v>
+        <v>8.734394928805303</v>
       </c>
       <c r="D24">
-        <v>4.125198966355636</v>
+        <v>3.960984158463162</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.36527453312914</v>
+        <v>21.18230365798975</v>
       </c>
       <c r="G24">
-        <v>2.034104653785875</v>
+        <v>3.591096940292571</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.57773276076426</v>
+        <v>22.03235750097607</v>
       </c>
       <c r="N24">
-        <v>9.753043573622715</v>
+        <v>16.26811096186683</v>
       </c>
       <c r="O24">
-        <v>15.62746491692841</v>
+        <v>18.44607437078061</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.82239568695114</v>
+        <v>11.17360653386256</v>
       </c>
       <c r="C25">
-        <v>11.95038667807565</v>
+        <v>8.268247518328108</v>
       </c>
       <c r="D25">
-        <v>3.902709819346816</v>
+        <v>3.874538778880024</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.78950572645115</v>
+        <v>20.94438945070537</v>
       </c>
       <c r="G25">
-        <v>2.044368055875457</v>
+        <v>3.594612457390045</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.29779307776864</v>
+        <v>20.85325030138399</v>
       </c>
       <c r="N25">
-        <v>10.25267068572815</v>
+        <v>16.38832564785153</v>
       </c>
       <c r="O25">
-        <v>14.76414055065164</v>
+        <v>18.39888445284592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_174/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.46978126609108</v>
+        <v>17.32896295015413</v>
       </c>
       <c r="C2">
-        <v>7.902901218768448</v>
+        <v>11.20942728026885</v>
       </c>
       <c r="D2">
-        <v>3.808319522319407</v>
+        <v>3.727711626806814</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.79039870847368</v>
+        <v>18.62732982563503</v>
       </c>
       <c r="G2">
-        <v>3.59741220045176</v>
+        <v>2.052161908685276</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96745915319175</v>
+        <v>30.04007188671599</v>
       </c>
       <c r="N2">
-        <v>16.48273794919262</v>
+        <v>10.61996266065971</v>
       </c>
       <c r="O2">
-        <v>18.38178476286791</v>
+        <v>14.16067808583237</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.965702345765218</v>
+        <v>16.23733983640585</v>
       </c>
       <c r="C3">
-        <v>7.642500481011892</v>
+        <v>10.67358132481191</v>
       </c>
       <c r="D3">
-        <v>3.761956772302128</v>
+        <v>3.602740665322309</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.69967622383982</v>
+        <v>17.84185234227508</v>
       </c>
       <c r="G3">
-        <v>3.59944262452683</v>
+        <v>2.057617749084312</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.36044299238007</v>
+        <v>27.74141946215239</v>
       </c>
       <c r="N3">
-        <v>16.55044511306207</v>
+        <v>10.87093449240375</v>
       </c>
       <c r="O3">
-        <v>18.38120398236523</v>
+        <v>13.77249738863096</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.643775446309027</v>
+        <v>15.52786293602234</v>
       </c>
       <c r="C4">
-        <v>7.476695600016303</v>
+        <v>10.32866084825477</v>
       </c>
       <c r="D4">
-        <v>3.732798885231843</v>
+        <v>3.523081317055601</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.65081845203585</v>
+        <v>17.36212837895117</v>
       </c>
       <c r="G4">
-        <v>3.600755320017431</v>
+        <v>2.061060755708709</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.9860236845136</v>
+        <v>26.27886320070111</v>
       </c>
       <c r="N4">
-        <v>16.59386810813637</v>
+        <v>11.0266834788671</v>
       </c>
       <c r="O4">
-        <v>18.38626834874109</v>
+        <v>13.54469499139851</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.509633033473424</v>
+        <v>15.22889487117676</v>
       </c>
       <c r="C5">
-        <v>7.407708067045711</v>
+        <v>10.18422470984061</v>
       </c>
       <c r="D5">
-        <v>3.720749647683164</v>
+        <v>3.489918776130474</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.63264588451259</v>
+        <v>17.16754594268014</v>
       </c>
       <c r="G5">
-        <v>3.601306907749528</v>
+        <v>2.062488193328112</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.83327292684265</v>
+        <v>25.6691822601578</v>
       </c>
       <c r="N5">
-        <v>16.61203060546836</v>
+        <v>11.09064936569947</v>
       </c>
       <c r="O5">
-        <v>18.38969332250826</v>
+        <v>13.45455850724618</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.487185792757261</v>
+        <v>15.17865701893537</v>
       </c>
       <c r="C6">
-        <v>7.39616903839074</v>
+        <v>10.16001085952971</v>
       </c>
       <c r="D6">
-        <v>3.718738980408371</v>
+        <v>3.48437092068191</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.62973368386143</v>
+        <v>17.13529886402031</v>
       </c>
       <c r="G6">
-        <v>3.601399505948613</v>
+        <v>2.062726717942454</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.8079061904981</v>
+        <v>25.56709739052656</v>
       </c>
       <c r="N6">
-        <v>16.6150747535388</v>
+        <v>11.10130306977332</v>
       </c>
       <c r="O6">
-        <v>18.39034417372639</v>
+        <v>13.4397553565806</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.64197807542662</v>
+        <v>15.52387081123917</v>
       </c>
       <c r="C7">
-        <v>7.47577086829547</v>
+        <v>10.32672846144274</v>
       </c>
       <c r="D7">
-        <v>3.732637053031752</v>
+        <v>3.52263686416326</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.6505663171143</v>
+        <v>17.35950012088048</v>
       </c>
       <c r="G7">
-        <v>3.600762691418983</v>
+        <v>2.061079906670791</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.98396397996257</v>
+        <v>26.27069720522889</v>
       </c>
       <c r="N7">
-        <v>16.59411115944174</v>
+        <v>11.02754403228818</v>
       </c>
       <c r="O7">
-        <v>18.38630903104105</v>
+        <v>13.54346841344529</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.29864587254525</v>
+        <v>16.96071404782512</v>
       </c>
       <c r="C8">
-        <v>7.814381572466564</v>
+        <v>11.02803803917748</v>
       </c>
       <c r="D8">
-        <v>3.792480956829943</v>
+        <v>3.685249454548103</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.7577070234889</v>
+        <v>18.35611455731608</v>
       </c>
       <c r="G8">
-        <v>3.598098624533174</v>
+        <v>2.054024374206166</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75866515501102</v>
+        <v>29.25759600329583</v>
       </c>
       <c r="N8">
-        <v>16.50570047993233</v>
+        <v>10.70620749810431</v>
       </c>
       <c r="O8">
-        <v>18.38045851565702</v>
+        <v>14.02467273642605</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.48166594457186</v>
+        <v>19.46716275469401</v>
       </c>
       <c r="C9">
-        <v>8.428825341307199</v>
+        <v>12.27239045132162</v>
       </c>
       <c r="D9">
-        <v>3.904072373316259</v>
+        <v>3.979470068228112</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.02130231446118</v>
+        <v>20.32095306194549</v>
       </c>
       <c r="G9">
-        <v>3.593395589799213</v>
+        <v>2.040877865064431</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25369898185258</v>
+        <v>34.75221196963047</v>
       </c>
       <c r="N9">
-        <v>16.34692059991866</v>
+        <v>10.08483365323425</v>
       </c>
       <c r="O9">
-        <v>18.41204173644015</v>
+        <v>15.05002261319995</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.28027604249875</v>
+        <v>21.11923015405816</v>
       </c>
       <c r="C10">
-        <v>8.846985739924818</v>
+        <v>13.10111445501299</v>
       </c>
       <c r="D10">
-        <v>3.982185661979862</v>
+        <v>4.178757063655318</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.24628231776407</v>
+        <v>21.76073135035218</v>
       </c>
       <c r="G10">
-        <v>3.590254440813121</v>
+        <v>2.031560196811358</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.32435082029166</v>
+        <v>38.64300697228712</v>
       </c>
       <c r="N10">
-        <v>16.23903396574347</v>
+        <v>9.626263106710011</v>
       </c>
       <c r="O10">
-        <v>18.46148901138047</v>
+        <v>15.85105769360717</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.62721029774221</v>
+        <v>21.82972981223568</v>
       </c>
       <c r="C11">
-        <v>9.029465891413162</v>
+        <v>13.45839723740877</v>
       </c>
       <c r="D11">
-        <v>4.016808205583964</v>
+        <v>4.265365559500611</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.35510360616356</v>
+        <v>22.41371522232308</v>
       </c>
       <c r="G11">
-        <v>3.588892910090961</v>
+        <v>2.027373894271498</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.8029901963447</v>
+        <v>40.40400394122713</v>
       </c>
       <c r="N11">
-        <v>16.19183019935221</v>
+        <v>9.415016487309986</v>
       </c>
       <c r="O11">
-        <v>18.48965894219354</v>
+        <v>16.2256575853763</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.75616480356128</v>
+        <v>22.09287161294525</v>
       </c>
       <c r="C12">
-        <v>9.097415861255904</v>
+        <v>13.59075124791916</v>
       </c>
       <c r="D12">
-        <v>4.029781977694014</v>
+        <v>4.297545149401565</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.39721176216435</v>
+        <v>22.66067234898109</v>
       </c>
       <c r="G12">
-        <v>3.588386966994227</v>
+        <v>2.025793967443282</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.9828539610874</v>
+        <v>41.07213053412909</v>
       </c>
       <c r="N12">
-        <v>16.17422280465591</v>
+        <v>9.334400728297858</v>
       </c>
       <c r="O12">
-        <v>18.50113856003073</v>
+        <v>16.36899165040075</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.72850084154657</v>
+        <v>22.0364623910455</v>
       </c>
       <c r="C13">
-        <v>9.082833376496058</v>
+        <v>13.56237913941789</v>
       </c>
       <c r="D13">
-        <v>4.026994030537407</v>
+        <v>4.290642749463379</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.38810351614328</v>
+        <v>22.60749944788286</v>
       </c>
       <c r="G13">
-        <v>3.58849550302044</v>
+        <v>2.026134035651782</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.94418139251418</v>
+        <v>40.92813184727855</v>
       </c>
       <c r="N13">
-        <v>16.17800299853198</v>
+        <v>9.351794976962978</v>
       </c>
       <c r="O13">
-        <v>18.49863016720889</v>
+        <v>16.33805563955729</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.63786835818583</v>
+        <v>21.85149716374752</v>
       </c>
       <c r="C14">
-        <v>9.035079450147785</v>
+        <v>13.46934569945298</v>
       </c>
       <c r="D14">
-        <v>4.017878345214707</v>
+        <v>4.268025577614192</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.358550021486</v>
+        <v>22.43403876186087</v>
       </c>
       <c r="G14">
-        <v>3.588851092964711</v>
+        <v>2.027243820040769</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.81781644109795</v>
+        <v>40.4589282085683</v>
       </c>
       <c r="N14">
-        <v>16.19037627517475</v>
+        <v>9.408398252944696</v>
       </c>
       <c r="O14">
-        <v>18.49058712453704</v>
+        <v>16.23741988243911</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.58203607452929</v>
+        <v>21.73743064086709</v>
       </c>
       <c r="C15">
-        <v>9.005677815408596</v>
+        <v>13.41197354845469</v>
       </c>
       <c r="D15">
-        <v>4.012276706398908</v>
+        <v>4.254090427253137</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.34056387802925</v>
+        <v>22.32774844121384</v>
       </c>
       <c r="G15">
-        <v>3.589070155818908</v>
+        <v>2.027924216874177</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.74022871168589</v>
+        <v>40.17178216097751</v>
       </c>
       <c r="N15">
-        <v>16.19799006385583</v>
+        <v>9.442980196298624</v>
       </c>
       <c r="O15">
-        <v>18.48576617518514</v>
+        <v>16.17597144059746</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.25726766465911</v>
+        <v>21.0719711599332</v>
       </c>
       <c r="C16">
-        <v>8.834901076154033</v>
+        <v>13.07735976486306</v>
       </c>
       <c r="D16">
-        <v>3.979904139988032</v>
+        <v>4.173012619611031</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.239298277144</v>
+        <v>21.71801360289404</v>
       </c>
       <c r="G16">
-        <v>3.590344771721219</v>
+        <v>2.031834657518295</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.29288585678573</v>
+        <v>38.52794463532398</v>
       </c>
       <c r="N16">
-        <v>16.24215639913101</v>
+        <v>9.639996214470552</v>
       </c>
       <c r="O16">
-        <v>18.45976194637218</v>
+        <v>15.82678252071115</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.05378949036235</v>
+        <v>20.65322085236836</v>
       </c>
       <c r="C17">
-        <v>8.728123408885546</v>
+        <v>12.866965168733</v>
       </c>
       <c r="D17">
-        <v>3.959806833044169</v>
+        <v>4.12221326794788</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.17881223698146</v>
+        <v>21.34341429734066</v>
       </c>
       <c r="G17">
-        <v>3.591143931281045</v>
+        <v>2.034245567993717</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.01617039367353</v>
+        <v>37.51882214236281</v>
       </c>
       <c r="N17">
-        <v>16.26972975026814</v>
+        <v>9.760029976241883</v>
       </c>
       <c r="O17">
-        <v>18.44526053021351</v>
+        <v>15.6151803884632</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.93521787849956</v>
+        <v>20.40850537827692</v>
       </c>
       <c r="C18">
-        <v>8.665980842274516</v>
+        <v>12.74410368217515</v>
       </c>
       <c r="D18">
-        <v>3.948161932144596</v>
+        <v>4.092616018759492</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.14463390859841</v>
+        <v>21.12776664894291</v>
       </c>
       <c r="G18">
-        <v>3.591609933236149</v>
+        <v>2.035637340848801</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.85622929503941</v>
+        <v>36.93737185433585</v>
       </c>
       <c r="N18">
-        <v>16.28576575337618</v>
+        <v>9.828839218168747</v>
       </c>
       <c r="O18">
-        <v>18.43745426882442</v>
+        <v>15.49443056017855</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.89481003393513</v>
+        <v>20.32498581083257</v>
       </c>
       <c r="C19">
-        <v>8.644816827727283</v>
+        <v>12.70219053539562</v>
       </c>
       <c r="D19">
-        <v>3.944204675830856</v>
+        <v>4.082530852348442</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.1331676888136</v>
+        <v>21.05472165110869</v>
       </c>
       <c r="G19">
-        <v>3.591768805101647</v>
+        <v>2.036109503727188</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.80194744607115</v>
+        <v>36.74025898060697</v>
       </c>
       <c r="N19">
-        <v>16.29122564709775</v>
+        <v>9.852103539286444</v>
       </c>
       <c r="O19">
-        <v>18.43490311764338</v>
+        <v>15.4537113822818</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.07560964084605</v>
+        <v>20.69819719954669</v>
       </c>
       <c r="C20">
-        <v>8.739565592192839</v>
+        <v>12.88955403333449</v>
       </c>
       <c r="D20">
-        <v>3.961955114462758</v>
+        <v>4.12766039319544</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.18518799801525</v>
+        <v>21.38331090171662</v>
       </c>
       <c r="G20">
-        <v>3.591058202920418</v>
+        <v>2.033988411087881</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04570947367225</v>
+        <v>37.62633521125541</v>
       </c>
       <c r="N20">
-        <v>16.26677626236312</v>
+        <v>9.747277635372868</v>
       </c>
       <c r="O20">
-        <v>18.44674892985486</v>
+        <v>15.63760663547711</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.6645555419021</v>
+        <v>21.90598643133833</v>
       </c>
       <c r="C21">
-        <v>9.049137460115638</v>
+        <v>13.49675263427348</v>
       </c>
       <c r="D21">
-        <v>4.020559608247987</v>
+        <v>4.274685838067316</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.36720643687151</v>
+        <v>22.48499680112847</v>
       </c>
       <c r="G21">
-        <v>3.588746386391792</v>
+        <v>2.026917724466801</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.85497185100868</v>
+        <v>40.59668593010831</v>
       </c>
       <c r="N21">
-        <v>16.18673469508073</v>
+        <v>9.391791616617542</v>
       </c>
       <c r="O21">
-        <v>18.49292755307027</v>
+        <v>16.26693856957888</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.03532463296727</v>
+        <v>22.66088987813944</v>
       </c>
       <c r="C22">
-        <v>9.244735590847302</v>
+        <v>13.87638451423693</v>
       </c>
       <c r="D22">
-        <v>4.0580597049379</v>
+        <v>4.367158402940203</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.49139534344579</v>
+        <v>23.20321774662077</v>
       </c>
       <c r="G22">
-        <v>3.587291640361147</v>
+        <v>2.022326330758104</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.37571951120724</v>
+        <v>42.54720835614962</v>
       </c>
       <c r="N22">
-        <v>16.13598207931531</v>
+        <v>9.15567407067574</v>
       </c>
       <c r="O22">
-        <v>18.52783991686195</v>
+        <v>16.68690948267372</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.83875204469976</v>
+        <v>22.26114288252729</v>
       </c>
       <c r="C23">
-        <v>9.140967824392957</v>
+        <v>13.67538253843675</v>
       </c>
       <c r="D23">
-        <v>4.038120422711809</v>
+        <v>4.318147780890106</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.42464579685837</v>
+        <v>22.82004649978521</v>
       </c>
       <c r="G23">
-        <v>3.588062944217397</v>
+        <v>2.024774980571769</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.09858678377433</v>
+        <v>41.50427537004416</v>
       </c>
       <c r="N23">
-        <v>16.16292766520012</v>
+        <v>9.282139578672799</v>
       </c>
       <c r="O23">
-        <v>18.50877514286555</v>
+        <v>16.46195641564643</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.06574969570294</v>
+        <v>20.67787575929678</v>
       </c>
       <c r="C24">
-        <v>8.734394928805303</v>
+        <v>12.87934752669587</v>
       </c>
       <c r="D24">
-        <v>3.960984158463162</v>
+        <v>4.125198966355899</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.18230365798975</v>
+        <v>21.36527453312911</v>
       </c>
       <c r="G24">
-        <v>3.591096940292571</v>
+        <v>2.034104653785878</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.03235750097607</v>
+        <v>37.57773276076418</v>
       </c>
       <c r="N24">
-        <v>16.26811096186683</v>
+        <v>9.753043573622781</v>
       </c>
       <c r="O24">
-        <v>18.44607437078061</v>
+        <v>15.62746491692844</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.17360653386256</v>
+        <v>18.82239568695094</v>
       </c>
       <c r="C25">
-        <v>8.268247518328108</v>
+        <v>11.9503866780757</v>
       </c>
       <c r="D25">
-        <v>3.874538778880024</v>
+        <v>3.90270981934699</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.94438945070537</v>
+        <v>19.78950572645118</v>
       </c>
       <c r="G25">
-        <v>3.594612457390045</v>
+        <v>2.044368055875323</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85325030138399</v>
+        <v>33.29779307776868</v>
       </c>
       <c r="N25">
-        <v>16.38832564785153</v>
+        <v>10.25267068572821</v>
       </c>
       <c r="O25">
-        <v>18.39888445284592</v>
+        <v>14.76414055065175</v>
       </c>
     </row>
   </sheetData>
